--- a/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
+++ b/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2E2958-DA0F-4830-A85F-7E88752A7B37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31556B7E-837E-4AA6-AE54-32A805D61062}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
   <si>
     <t>Device</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Sounders/Beacons</t>
   </si>
   <si>
-    <t>VerifyDCCalculationOnChangingBase</t>
-  </si>
-  <si>
-    <t>Verify DCCalculation On ChangingBase</t>
-  </si>
-  <si>
     <t>Row Index</t>
   </si>
   <si>
@@ -167,6 +161,15 @@
   </si>
   <si>
     <t>DC Units on UI after deleting device</t>
+  </si>
+  <si>
+    <t>NGC-1826/TC-63769</t>
+  </si>
+  <si>
+    <t>VerifyCurrentDCCalculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify current DCCalculation </t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,7 +320,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -331,6 +333,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -340,8 +344,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +627,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,35 +649,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="22" t="s">
-        <v>39</v>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G1" s="4">
-        <v>324.42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>345.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="F2" s="22" t="s">
-        <v>36</v>
+      <c r="D2" s="15"/>
+      <c r="F2" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="4">
-        <v>311.32</v>
+        <v>332.3</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -686,14 +688,14 @@
         <v>20</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>37</v>
+      <c r="F3" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -705,13 +707,15 @@
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>38</v>
+      <c r="F4" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="1">
         <v>220</v>
@@ -721,7 +725,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="2"/>
@@ -764,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>3</v>
@@ -781,13 +785,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>9</v>
@@ -825,13 +829,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>9</v>
@@ -869,13 +873,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>9</v>
@@ -893,7 +897,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" s="9">
         <v>13</v>
@@ -913,13 +917,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>9</v>
@@ -968,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,17 +994,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="F1" s="22" t="s">
-        <v>39</v>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G1" s="4">
-        <v>292.2</v>
+        <v>345.4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -1008,16 +1012,18 @@
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="F2" s="22" t="s">
-        <v>40</v>
+      <c r="D2" s="17"/>
+      <c r="F2" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="4">
-        <v>311.32</v>
+        <v>332.3</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1027,13 +1033,15 @@
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>43</v>
+      <c r="F3" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="G3" s="4">
         <v>299.32</v>
@@ -1046,13 +1054,15 @@
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>44</v>
+      <c r="F4" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="4">
         <v>286.32</v>
@@ -1063,7 +1073,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="2"/>
@@ -1124,13 +1134,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>9</v>
@@ -1168,13 +1178,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>9</v>
@@ -1192,7 +1202,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" s="9">
         <v>13</v>
@@ -1212,13 +1222,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>9</v>

--- a/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
+++ b/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31556B7E-837E-4AA6-AE54-32A805D61062}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F894A4-4C4C-4CCF-83EB-3C6E3D2A724B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>Device</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t xml:space="preserve">Verify current DCCalculation </t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Current (worst case)</t>
   </si>
 </sst>
 </file>
@@ -627,7 +636,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +664,9 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F1" s="18" t="s">
         <v>37</v>
       </c>
@@ -673,6 +685,9 @@
         <v>12</v>
       </c>
       <c r="D2" s="15"/>
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="18" t="s">
         <v>34</v>
       </c>
@@ -693,6 +708,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>35</v>
@@ -973,7 +991,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,6 +1018,9 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F1" s="18" t="s">
         <v>37</v>
       </c>
@@ -1019,6 +1040,9 @@
         <v>12</v>
       </c>
       <c r="D2" s="17"/>
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1039,6 +1063,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>41</v>

--- a/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
+++ b/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F894A4-4C4C-4CCF-83EB-3C6E3D2A724B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
     <sheet name="Update Devices" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +30,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+430SB [516.800.710] @ 90dB &amp; 801RIL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>Device</t>
   </si>
@@ -184,8 +217,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +240,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -632,11 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,11 +960,11 @@
       <c r="H10" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>33</v>
+      <c r="I10" s="9">
+        <v>8</v>
       </c>
       <c r="J10" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>9</v>
@@ -983,14 +1029,15 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
+++ b/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
@@ -64,8 +64,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+430SB [516.800.710] @ 90dB &amp; 801RIL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
   <si>
     <t>Device</t>
   </si>
@@ -164,9 +198,6 @@
   </si>
   <si>
     <t>460PC</t>
-  </si>
-  <si>
-    <t>430SB [516.800.710] @ 90dB &amp; 801RIL</t>
   </si>
   <si>
     <t>DC Units on UI after deleting other devices</t>
@@ -682,7 +713,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,10 +742,10 @@
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4">
         <v>345.4</v>
@@ -725,17 +756,17 @@
         <v>19</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4">
         <v>332.3</v>
@@ -749,17 +780,17 @@
         <v>20</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -772,14 +803,14 @@
         <v>22</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>220</v>
@@ -981,13 +1012,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>9</v>
@@ -1034,18 +1065,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
@@ -1066,10 +1097,10 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4">
         <v>345.4</v>
@@ -1081,17 +1112,17 @@
         <v>19</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4">
         <v>332.3</v>
@@ -1105,17 +1136,17 @@
         <v>20</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4">
         <v>299.32</v>
@@ -1129,14 +1160,14 @@
         <v>22</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4">
         <v>286.32</v>
@@ -1275,11 +1306,11 @@
       <c r="H9" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>33</v>
+      <c r="I9" s="9">
+        <v>8</v>
       </c>
       <c r="J9" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>9</v>
@@ -1341,5 +1372,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
+++ b/Test Data/TC_63769_Verify_Current(DC_Units)_Calculation_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1731D03-3DAD-427B-8E2B-936C5198AB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -20,23 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,12 +60,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t>Device</t>
   </si>
@@ -243,12 +238,30 @@
   </si>
   <si>
     <t>Current (worst case)</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -393,9 +406,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -709,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,95 +745,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="4">
-        <v>345.4</v>
+        <v>313</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="4">
         <v>332.3</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>220</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
@@ -879,178 +908,178 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="9" t="s">
+      <c r="I9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>8</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>6</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9">
         <v>1.2</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="9" t="s">
+      <c r="I11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1065,11 +1094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,100 +1119,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="4">
         <v>345.4</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="4">
-        <v>332.3</v>
+        <v>339</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="4">
-        <v>299.32</v>
+        <v>336</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="4">
-        <v>286.32</v>
+        <v>311</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
@@ -1238,134 +1279,134 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="9">
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>8</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>6</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="9" t="s">
+      <c r="K9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="I10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
